--- a/loaded_influencer_data/seananthonyv/seananthonyv_video.xlsx
+++ b/loaded_influencer_data/seananthonyv/seananthonyv_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,2321 +506,2319 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@seananthonyv/video/7216091926955707653</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@seananthonyv/video/7489603068657536262</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8400000</v>
+        <v>11200</v>
       </c>
       <c r="C2" t="n">
-        <v>860100</v>
+        <v>669</v>
       </c>
       <c r="D2" t="n">
-        <v>1755</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26500</v>
+        <v>26</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>셀레나의 페이브 콤보&gt; 😱#selenagomez #rarebeauty #seananthony #makeup</t>
+          <t>ube lipstick supremacy!! 🍠💄 #makeup #beauty #ubelipstick #lipstick</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10.26017857142857</v>
+        <v>6.142857142857143</v>
       </c>
       <c r="I2" t="n">
-        <v>10.23928571428571</v>
+        <v>5.973214285714286</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02089285714285714</v>
+        <v>0.1696428571428572</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3154761904761905</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>고정됨</t>
-        </is>
+        <v>0.2321428571428572</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2023-3-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@seananthonyv/video/7489526976361827639</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3040</v>
+      </c>
+      <c r="C3" t="n">
+        <v>187</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>see you soon @ladygaga #mayhemball</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6.611842105263158</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.151315789473684</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4605263157894736</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.4276315789473685</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@seananthonyv/video/7489505230019726597</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4385</v>
+      </c>
+      <c r="C4" t="n">
+        <v>322</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>23</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>name a better powder than the @ONE SIZE BEAUTY powder, i’ll wait… ☺️💕 #beauty #makeup #grwm</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7.936145952109463</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.343215507411631</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.5929304446978335</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.524515393386545</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@seananthonyv/video/7489341607532072247</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12500</v>
+      </c>
+      <c r="C5" t="n">
+        <v>618</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>37</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>trying out the viral @Huda Beauty setting spray!!! 😱🤔 #makeup #beauty #fyp #hudabeauty #beautytips</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5.144</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.944</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@seananthonyv/video/7488815252067323142</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9873</v>
+      </c>
+      <c r="C6" t="n">
+        <v>428</v>
+      </c>
+      <c r="D6" t="n">
+        <v>16</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>24</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sorbet-like texture to remove a full face of makeup and spf! Using the cult classic, Green Clean Cleansing Balm from Farmacy! 💚💚</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4.497113339410514</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.335055201053377</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1620581383571356</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2430872075357034</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@seananthonyv/video/7488781585983081783</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>275200</v>
+      </c>
+      <c r="C7" t="n">
+        <v>21400</v>
+      </c>
+      <c r="D7" t="n">
+        <v>562</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2431</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ranking singers!!! 🤔</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7.980377906976745</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.776162790697675</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.2042151162790698</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8833575581395349</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@seananthonyv/video/7488427293635874054</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>58600</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6500</v>
+      </c>
+      <c r="D8" t="n">
+        <v>86</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>371</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>SECRET’S OUT!! 🫢😱💧This is the BEST primer under makeup!! #makeup #beauty #primer #fyp #beautytips</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>11.23890784982935</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11.09215017064846</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1467576791808874</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.6331058020477816</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@seananthonyv/video/7488176076183702790</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>27700</v>
+      </c>
+      <c r="C9" t="n">
+        <v>844</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>45</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>raining rodriguez dupe? 😭</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3.07942238267148</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.046931407942238</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.03249097472924187</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.1624548736462094</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@seananthonyv/video/7488115935744625975</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>25800</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2078</v>
+      </c>
+      <c r="D10" t="n">
+        <v>38</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>185</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>raining rodriguez dupe? 😭</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8.2015503875969</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8.054263565891473</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.1472868217054263</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.7170542635658914</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7486567008256167173</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B11" t="n">
         <v>54000</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C11" t="n">
         <v>4315</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D11" t="n">
         <v>40</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>237</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Replying to @andy17385941 trying out PRADA BEAUTY?! 😱😱🤔 #makeup #beauty #viralmakeup #beautytips #fyp #makeuphacks</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="H11" t="n">
         <v>8.064814814814815</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I11" t="n">
         <v>7.990740740740741</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.07407407407407407</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L11" t="n">
         <v>0.4388888888888889</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7486243323607321862</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B12" t="n">
         <v>236700</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C12" t="n">
         <v>6073</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D12" t="n">
         <v>59</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>318</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>미안해 전갈자리 😅😱#fyp</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H12" t="n">
         <v>2.590621039290241</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I12" t="n">
         <v>2.565694972539079</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.02492606675116181</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L12" t="n">
         <v>0.1343472750316857</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7485523464602930437</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B13" t="n">
         <v>23100</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C13" t="n">
         <v>1319</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D13" t="n">
         <v>20</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>65</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>이 메이크업 해킹을 사랑 ☺️🎀#makeup #beauty #fyp #viralmakeup #beautytips #makeuphacks</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H13" t="n">
         <v>5.796536796536796</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I13" t="n">
         <v>5.70995670995671</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.08658008658008658</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L13" t="n">
         <v>0.2813852813852814</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7485455587636022533</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B14" t="n">
         <v>69200</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C14" t="n">
         <v>3862</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D14" t="n">
         <v>294</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>221</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>메이크업은 모두를 위한 것입니다! !!!!#fyp #makeup #beauty</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H14" t="n">
         <v>6.005780346820809</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I14" t="n">
         <v>5.58092485549133</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.4248554913294798</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L14" t="n">
         <v>0.319364161849711</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7485113797724654866</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B15" t="n">
         <v>56900</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C15" t="n">
         <v>3942</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D15" t="n">
         <v>87</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>245</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>이 파운데이션은 모든 과대 광고의 가치가 있습니다!! 🤌🏼😘#stitch
 @maha @Haus Labs by Lady Gaga</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H15" t="n">
         <v>7.080843585237258</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I15" t="n">
         <v>6.927943760984183</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.1528998242530756</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L15" t="n">
         <v>0.4305799648506152</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7485014213904108806</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B16" t="n">
         <v>24700</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C16" t="n">
         <v>1645</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D16" t="n">
         <v>31</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>78</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>정중하게, idgaf 😘#makeup #fyp #beauty</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H16" t="n">
         <v>6.785425101214575</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I16" t="n">
         <v>6.659919028340081</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.1255060728744939</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L16" t="n">
         <v>0.3157894736842105</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7484730452943588614</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B17" t="n">
         <v>103000</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C17" t="n">
         <v>8507</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D17" t="n">
         <v>68</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>390</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>unboxing PRADA makeup!! 😱😱 i didnt know they had makeup??! #makeup #beauty #viralmakeup #beautytips #makeuphacks #unboxingvideo</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H17" t="n">
         <v>8.325242718446601</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I17" t="n">
         <v>8.259223300970874</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.06601941747572816</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L17" t="n">
         <v>0.3786407766990291</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7484293972521733382</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B18" t="n">
         <v>601700</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C18" t="n">
         <v>31200</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D18" t="n">
         <v>270</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>3029</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>프라다 메이크업 언박싱!!😱😱나는 그들이 화장을 한 줄 몰랐어??!#makeup #beauty #viralmakeup #beautytips</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H18" t="n">
         <v>5.230181153398703</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I18" t="n">
         <v>5.185308293169354</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.04487286022935018</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L18" t="n">
         <v>0.5034070134618581</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7484014811018218758</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B19" t="n">
         <v>251300</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C19" t="n">
         <v>17300</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D19" t="n">
         <v>108</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>658</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>메이크업을 지우는 가장 쉽고 편리한 방법! !! ❤️💦해체 미스트가 드디어 돌아왔습니다!!😱😱 저는 이것을 2020년부터 사용하고 있습니다.</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H19" t="n">
         <v>6.927178670911262</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I19" t="n">
         <v>6.884202148826104</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.04297652208515718</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L19" t="n">
         <v>0.2618384401114206</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7484008971037330743</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B20" t="n">
         <v>32100</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C20" t="n">
         <v>1275</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D20" t="n">
         <v>29</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>89</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>나는 단 것을 좋아한다#fyp</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H20" t="n">
         <v>4.062305295950155</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I20" t="n">
         <v>3.97196261682243</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.09034267912772585</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L20" t="n">
         <v>0.2772585669781931</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7483616537430068535</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B21" t="n">
         <v>86000</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C21" t="n">
         <v>8502</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D21" t="n">
         <v>121</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>620</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>가장 좋아하는 엘프 제품에 대한 답변?! 🤔😱@Jen #makeup #beauty #viralmakeup #beautytips #makeupchallenge</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H21" t="n">
         <v>10.02674418604651</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I21" t="n">
         <v>9.886046511627907</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.1406976744186046</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L21" t="n">
         <v>0.7209302325581395</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7483097851250150662</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B22" t="n">
         <v>23500</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C22" t="n">
         <v>1070</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D22" t="n">
         <v>56</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>58</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>b-b-근데 내가 왜 그렇게 잘 입어 보여?? 🤔😚#fyp #makeup #beauty</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H22" t="n">
         <v>4.791489361702127</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I22" t="n">
         <v>4.553191489361702</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.2382978723404255</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L22" t="n">
         <v>0.2468085106382979</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7482457246346022149</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B23" t="n">
         <v>597900</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C23" t="n">
         <v>16600</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D23" t="n">
         <v>405</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>2815</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>1분 이내에 단계별 메이크업 튜토리얼! ☺️💕#makeup #beauty #viralmakeup #beautytips #makeuptutorial</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H23" t="n">
         <v>2.844121090483358</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I23" t="n">
         <v>2.776384010704131</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.0677370797792273</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L23" t="n">
         <v>0.4708145174778391</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7481776097009421574</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B24" t="n">
         <v>48200</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C24" t="n">
         <v>2956</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D24" t="n">
         <v>46</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>243</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>이것으로 5달러짜리 림 플럼퍼?! 😱😱이 포장은 귀엽다!!#stitch
 @SHEGLAM #makeup #beauty #beautytips</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H24" t="n">
         <v>6.228215767634855</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I24" t="n">
         <v>6.132780082987551</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.0954356846473029</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L24" t="n">
         <v>0.504149377593361</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7481491457233145093</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B25" t="n">
         <v>1100000</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C25" t="n">
         <v>73900</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D25" t="n">
         <v>5672</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>6080</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>메이크업은 모두를 위한 거야, 다포크? 😚#fyp #makeup #beauty</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H25" t="n">
         <v>7.233818181818181</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I25" t="n">
         <v>6.718181818181818</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.5156363636363636</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L25" t="n">
         <v>0.5527272727272727</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7481398853929930039</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B26" t="n">
         <v>78500</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C26" t="n">
         <v>3101</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D26" t="n">
         <v>142</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>290</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>내 손톱을 최대한 빨리 고쳐야 해! 😱😅 나와 함께 준비해 🫶🏼#makeup #beauty #viralmakeup #beautytips #grwm</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H26" t="n">
         <v>4.131210191082803</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I26" t="n">
         <v>3.95031847133758</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.1808917197452229</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L26" t="n">
         <v>0.3694267515923567</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7480850087556484357</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B27" t="n">
         <v>19500</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C27" t="n">
         <v>942</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D27" t="n">
         <v>33</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>41</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>나와 함께 아침 만들기 🍳</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H27" t="n">
         <v>5</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I27" t="n">
         <v>4.83076923076923</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.1692307692307692</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L27" t="n">
         <v>0.2102564102564103</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7479545490636344631</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B28" t="n">
         <v>151700</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C28" t="n">
         <v>9196</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D28" t="n">
         <v>115</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>1392</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>인피니티 코 컨투어?!😱😱@Tao #makeup #beauty #makeuptutorial #beautytips #viralmakeup</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H28" t="n">
         <v>6.137771918259723</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I28" t="n">
         <v>6.061964403427818</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.07580751483190507</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L28" t="n">
         <v>0.9176005273566249</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7478492964252126469</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B29" t="n">
         <v>75900</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C29" t="n">
         <v>2479</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D29" t="n">
         <v>30</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>128</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>어. .. 😬</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H29" t="n">
         <v>3.30566534914361</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I29" t="n">
         <v>3.266139657444005</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.03952569169960474</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L29" t="n">
         <v>0.1686429512516469</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7478190744658791686</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B30" t="n">
         <v>149000</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C30" t="n">
         <v>456</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D30" t="n">
         <v>21</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>39</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>하이드레이션으로 생활이 더 좋습니다!! 🩵 메이크업 중인 하이드로 부스트 젤 크림이 너무 좋아요!!</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H30" t="n">
         <v>0.3201342281879195</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I30" t="n">
         <v>0.3060402684563758</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.01409395973154362</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L30" t="n">
         <v>0.0261744966442953</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7477747523763932422</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B31" t="n">
         <v>107500</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C31" t="n">
         <v>7101</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D31" t="n">
         <v>99</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>383</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>하이드레이션으로 생활이 더 좋습니다!! 🩵 메이크업 중인 하이드로 부스트 젤 크림이 너무 좋아요!!</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H31" t="n">
         <v>6.697674418604652</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I31" t="n">
         <v>6.605581395348838</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.09209302325581395</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L31" t="n">
         <v>0.3562790697674419</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7477526400078073094</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B32" t="n">
         <v>35300</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C32" t="n">
         <v>1260</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D32" t="n">
         <v>28</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>53</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>말문이 막힌 나에게 답장...@chickenleggzz</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H32" t="n">
         <v>3.64872521246459</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I32" t="n">
         <v>3.569405099150141</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.07932011331444759</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L32" t="n">
         <v>0.1501416430594901</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7477413520016018743</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B33" t="n">
         <v>911200</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C33" t="n">
         <v>36000</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D33" t="n">
         <v>617</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>4195</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>말문이 막힌 나에게 답장...@chickenleggzz</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H33" t="n">
         <v>4.018546971027217</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I33" t="n">
         <v>3.950834064969271</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.06771290605794557</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L33" t="n">
         <v>0.4603819139596137</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7477056229320183045</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B34" t="n">
         <v>176300</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C34" t="n">
         <v>13700</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D34" t="n">
         <v>94</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>438</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Huda Beauty에서 받은 마지막 홍보 패키지일 수도 있습니다... 😰😭💜</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H34" t="n">
         <v>7.824163357912648</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I34" t="n">
         <v>7.770845150311969</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.05331820760068065</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L34" t="n">
         <v>0.2484401588201928</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7476832765216853253</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B35" t="n">
         <v>102600</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C35" t="n">
         <v>2175</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D35" t="n">
         <v>55</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>178</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>립 플럼퍼가 잘못되었습니다... 😱🐟#subtleforeshadwing</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H35" t="n">
         <v>2.173489278752437</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I35" t="n">
         <v>2.119883040935672</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.05360623781676413</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L35" t="n">
         <v>0.1734892787524366</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7476662118343920902</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B36" t="n">
         <v>98600</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C36" t="n">
         <v>868</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D36" t="n">
         <v>28</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>38</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>잘못된 k 아이돌... 😰😰</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H36" t="n">
         <v>0.9087221095334685</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I36" t="n">
         <v>0.8803245436105476</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.02839756592292089</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L36" t="n">
         <v>0.0385395537525355</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7476614131269815607</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B37" t="n">
         <v>146700</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C37" t="n">
         <v>5636</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D37" t="n">
         <v>67</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>241</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Replying to @Tiana Marie trying men’s makeup part 2… 😅 #beauty #makeup #beautytips #viralmakeup</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H37" t="n">
         <v>3.887525562372188</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I37" t="n">
         <v>3.841854124062713</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.04567143830947511</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L37" t="n">
         <v>0.1642808452624404</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7476552341928316215</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B38" t="n">
         <v>1200000</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C38" t="n">
         <v>72300</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D38" t="n">
         <v>144</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>1884</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>남성 메이크업을 시도하고 있습니다... 😱🤔#makeup #beauty #viralmakeup #beautytips</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H38" t="n">
         <v>6.037</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I38" t="n">
         <v>6.024999999999999</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.012</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L38" t="n">
         <v>0.157</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7475068685368036614</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B39" t="n">
         <v>18700</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C39" t="n">
         <v>494</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D39" t="n">
         <v>18</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>34</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>나는 여전히 움직이지 않았다 💚🩷#wicked</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H39" t="n">
         <v>2.737967914438503</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I39" t="n">
         <v>2.641711229946524</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.09625668449197862</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L39" t="n">
         <v>0.1818181818181818</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7473545268202458373</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B40" t="n">
         <v>37500</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C40" t="n">
         <v>1442</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D40" t="n">
         <v>57</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>87</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>내가 좋아하는 블러셔 콤보 atm 😍☺️💕#blush #beautytips #makeup #viralmakeup</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H40" t="n">
         <v>3.997333333333333</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I40" t="n">
         <v>3.845333333333333</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>0.152</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L40" t="n">
         <v>0.232</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7473256600766139703</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B41" t="n">
         <v>381200</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C41" t="n">
         <v>26200</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D41" t="n">
         <v>165</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>1134</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>완벽한 우베 립스틱을 찾는 작업은 계속됩니다... 😱🍠#stitch
 @Sean Anthony #makeup #beauty #beautytips</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H41" t="n">
         <v>6.916316894018888</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I41" t="n">
         <v>6.873032528856243</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>0.04328436516264429</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L41" t="n">
         <v>0.2974816369359916</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7472994073788435718</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B42" t="n">
         <v>28900</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C42" t="n">
         <v>1484</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D42" t="n">
         <v>38</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>287</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>초보자를 위한 윤곽 튜토리얼에 회신 (둥근 얼굴) ☺️🤯@kayu790 #makeup #beauty #makeuptutorial</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H42" t="n">
         <v>5.26643598615917</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I42" t="n">
         <v>5.134948096885813</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.1314878892733564</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L42" t="n">
         <v>0.9930795847750865</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7472918687113039109</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B43" t="n">
         <v>456200</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C43" t="n">
         <v>58400</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D43" t="n">
         <v>245</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>2408</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>홍당무 시도... 😱😅@James Charles #makeup #beauty #viralmakeup #beautytips #blush #makeupreview</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H43" t="n">
         <v>12.85510740903113</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I43" t="n">
         <v>12.80140289346778</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.0537045155633494</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L43" t="n">
         <v>0.5278386672512057</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7472512906408512774</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B44" t="n">
         <v>406800</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C44" t="n">
         <v>24200</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D44" t="n">
         <v>184</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>1587</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>홍당무 시도... 😱😅@James Charles #makeup #beauty #viralmakeup #beautytips #blush #makeupreview</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H44" t="n">
         <v>5.994100294985251</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I44" t="n">
         <v>5.948869223205507</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>0.04523107177974435</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L44" t="n">
         <v>0.390117994100295</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7472413209442454839</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B45" t="n">
         <v>74500</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C45" t="n">
         <v>2489</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D45" t="n">
         <v>104</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>194</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>유리 피부 메이크업 해킹 ✨😱#makeup #beauty #viralmakeup #beautytips #makeuphacks #glassskin</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H45" t="n">
         <v>3.480536912751678</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I45" t="n">
         <v>3.340939597315436</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.1395973154362416</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L45" t="n">
         <v>0.2604026845637584</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7469600276425526583</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B46" t="n">
         <v>19900</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C46" t="n">
         <v>496</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D46" t="n">
         <v>39</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>39</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>음악에서 가장 큰 밤을 축하하기 위해 GRWM!! 내가 좋아하는 하이드로 부스트 제품을 사용하여 이 피부를 준비하고 상쾌하게 만들어야 🎶⭐!! 🩵🩵</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H46" t="n">
         <v>2.688442211055276</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I46" t="n">
         <v>2.492462311557789</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>0.1959798994974874</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L46" t="n">
         <v>0.1959798994974874</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7469504095703878917</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B47" t="n">
         <v>23500</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C47" t="n">
         <v>1514</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D47" t="n">
         <v>34</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>211</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>내가 먹어 본 것 중 가장 아름다운 아첨 립스틱 중 하나를 😱🤯 여러분이 그것을 먹었습니다!! 🤌🏼🍽️@maccosmetics</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H47" t="n">
         <v>6.587234042553192</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I47" t="n">
         <v>6.442553191489361</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.1446808510638298</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L47" t="n">
         <v>0.897872340425532</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-02-10</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@seananthonyv/video/7469362350970227973</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B48" t="n">
         <v>25100</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C48" t="n">
         <v>1187</v>
-      </c>
-      <c r="D40" t="n">
-        <v>41</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>45</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>슈퍼볼의 가장 좋은 점은 남자들이 육체적으로 될 때입니다. 😍</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>4.892430278884462</v>
-      </c>
-      <c r="I40" t="n">
-        <v>4.729083665338645</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.1633466135458167</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.1792828685258964</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>2025-02-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@seananthonyv/video/7469257678993476919</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>84300</v>
-      </c>
-      <c r="C41" t="n">
-        <v>2657</v>
-      </c>
-      <c r="D41" t="n">
-        <v>34</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>169</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>말 그대로 얼굴에 붙이는 접착제!! 이것들로 먹었다😱😱!! 🤌🏼@NYX Professional Makeup</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>3.192170818505338</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.151838671411626</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.04033214709371293</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.2004744958481613</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>2025-02-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@seananthonyv/video/7468841660873592069</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>20000</v>
-      </c>
-      <c r="C42" t="n">
-        <v>885</v>
-      </c>
-      <c r="D42" t="n">
-        <v>36</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>89</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>이것은 블러쉬 헤븐입니다!! 😍 러브 스펠 블러쉬!! 20% 할인은 코드 션토니를 사용하세요!!@moiracosmetics #blushes</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>4.605</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4.425</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.445</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>2025-02-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@seananthonyv/video/7468763645393030406</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>73200</v>
-      </c>
-      <c r="C43" t="n">
-        <v>4418</v>
-      </c>
-      <c r="D43" t="n">
-        <v>82</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>153</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>새로운 입술 모양에 대한 잔인하고 정직한 리뷰...😱😏@rhode skin @paloma 🐇 @Hailey Bieber #makeup</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>6.147540983606557</v>
-      </c>
-      <c r="I43" t="n">
-        <v>6.03551912568306</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.1120218579234973</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.2090163934426229</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>2025-02-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@seananthonyv/video/7468571368267730181</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>17900</v>
-      </c>
-      <c r="C44" t="n">
-        <v>960</v>
-      </c>
-      <c r="D44" t="n">
-        <v>27</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>67</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>새로운 입술 모양에 대한 잔인하고 정직한 리뷰...😱😏@rhode skin @paloma 🐇 @Hailey Bieber #makeup</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>5.513966480446927</v>
-      </c>
-      <c r="I44" t="n">
-        <v>5.363128491620111</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.1508379888268156</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.3743016759776536</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@seananthonyv/video/7468524742228659461</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>753200</v>
-      </c>
-      <c r="C45" t="n">
-        <v>18000</v>
-      </c>
-      <c r="D45" t="n">
-        <v>97</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>3284</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>너무 매끄럽고 시원하다!! 😍@Milani Cosmetics #makeup #beauty #beautytips #makeuphacks #primer</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>2.402681890600106</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2.389803505045141</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.01287838555496548</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.4360063728093468</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@seananthonyv/video/7467623797785365766</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>69400</v>
-      </c>
-      <c r="C46" t="n">
-        <v>2494</v>
-      </c>
-      <c r="D46" t="n">
-        <v>36</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>120</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>원 도트만 있으면 된다고... 😱😱@Selena Gomez</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>3.645533141210375</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.593659942363112</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.05187319884726225</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.1729106628242075</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-02-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@seananthonyv/video/7467329991177456901</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>54300</v>
-      </c>
-      <c r="C47" t="n">
-        <v>3056</v>
-      </c>
-      <c r="D47" t="n">
-        <v>148</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>296</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>LA에서 슬라임 만들기! !!! 😱🌴#slimetutorial #slimevideo #slimeasmr #slimeanthony</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>5.900552486187846</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5.627992633517495</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.2725598526703499</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.5451197053406998</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-02-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@seananthonyv/video/7467259104973556998</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>21300</v>
-      </c>
-      <c r="C48" t="n">
-        <v>865</v>
       </c>
       <c r="D48" t="n">
         <v>41</v>
@@ -2829,134 +2827,184 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>알아볼 수 없는 메이크업을 시도하는데 내가 집착하는 것 같아?😱😅 나는 완전한 글래머를 좋아한다!!! 💕#makeup</t>
+          <t>슈퍼볼의 가장 좋은 점은 남자들이 육체적으로 될 때입니다. 😍</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>4.253521126760564</v>
+        <v>4.892430278884462</v>
       </c>
       <c r="I48" t="n">
-        <v>4.061032863849765</v>
+        <v>4.729083665338645</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.1924882629107981</v>
+        <v>0.1633466135458167</v>
       </c>
       <c r="L48" t="n">
-        <v>0.1877934272300469</v>
+        <v>0.1792828685258964</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-02-04</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@seananthonyv/video/7467035890456562950</t>
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@seananthonyv/video/7469257678993476919</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>143400</v>
+        <v>84300</v>
       </c>
       <c r="C49" t="n">
-        <v>8041</v>
+        <v>2657</v>
       </c>
       <c r="D49" t="n">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>458</v>
+        <v>169</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>그리고 그것이 그녀가 항상 여왕이 되는 이유입니다!! 🏳️‍⚧️🏳️‍🌈#grammys</t>
+          <t>말 그대로 얼굴에 붙이는 접착제!! 이것들로 먹었다😱😱!! 🤌🏼@NYX Professional Makeup</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>5.696652719665272</v>
+        <v>3.192170818505338</v>
       </c>
       <c r="I49" t="n">
-        <v>5.607391910739191</v>
+        <v>3.151838671411626</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.08926080892608089</v>
+        <v>0.04033214709371293</v>
       </c>
       <c r="L49" t="n">
-        <v>0.3193863319386332</v>
+        <v>0.2004744958481613</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-09</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@seananthonyv/video/7467013524917636357</t>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@seananthonyv/video/7468841660873592069</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>15400</v>
+        <v>20000</v>
       </c>
       <c r="C50" t="n">
-        <v>631</v>
+        <v>885</v>
       </c>
       <c r="D50" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>나는 doechii가 끝내도록 해야 🫡⭐</t>
+          <t>이것은 블러쉬 헤븐입니다!! 😍 러브 스펠 블러쉬!! 20% 할인은 코드 션토니를 사용하세요!!@moiracosmetics #blushes</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>4.253246753246753</v>
+        <v>4.605</v>
       </c>
       <c r="I50" t="n">
-        <v>4.097402597402597</v>
+        <v>4.425</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.1558441558441558</v>
+        <v>0.18</v>
       </c>
       <c r="L50" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.445</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-02-03</t>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@seananthonyv/video/7468763645393030406</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>73200</v>
+      </c>
+      <c r="C51" t="n">
+        <v>4418</v>
+      </c>
+      <c r="D51" t="n">
+        <v>82</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>153</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>새로운 입술 모양에 대한 잔인하고 정직한 리뷰...😱😏@rhode skin @paloma 🐇 @Hailey Bieber #makeup</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6.147540983606557</v>
+      </c>
+      <c r="I51" t="n">
+        <v>6.03551912568306</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1120218579234973</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.2090163934426229</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
         </is>
       </c>
     </row>
